--- a/aux data/Prevalencija po godini, bolesti i dobnoj skupini/Morbiditet_ tablica.xlsx
+++ b/aux data/Prevalencija po godini, bolesti i dobnoj skupini/Morbiditet_ tablica.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikap\Documents\Edukacija\Aktuarstvo\Zavrsni rad\Prevalencija po godini, bolesti i dobnoj skupini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikap\Documents\Edukacija\Aktuarstvo\Zavrsni rad\Code Repository\Zavrsni-rad\aux data\Prevalencija po godini, bolesti i dobnoj skupini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7560" tabRatio="778" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Morbiditet kalkulatrono" sheetId="7" r:id="rId1"/>
+    <sheet name="Morbiditet kalkulatorno" sheetId="7" r:id="rId1"/>
     <sheet name="Prevalencija-SU" sheetId="1" r:id="rId2"/>
     <sheet name="Prevalencija-MU" sheetId="5" r:id="rId3"/>
     <sheet name="Prevalencija-R" sheetId="6" r:id="rId4"/>
@@ -797,7 +797,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16593,7 +16593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L932"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38:E927"/>
     </sheetView>
   </sheetViews>
@@ -79135,7 +79135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L932"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I956" sqref="I956"/>
     </sheetView>
   </sheetViews>
